--- a/Santander_Product_Recommendation/Santander_Project_Plan.xlsx
+++ b/Santander_Product_Recommendation/Santander_Project_Plan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ara/Kaggle_Project_original/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ara/Kaggle_Project_original/Santander_Product_Recommendation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" tabRatio="500"/>
+    <workbookView xWindow="7160" yWindow="680" windowWidth="28800" windowHeight="16180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="EDA1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t># feature 24개</t>
   </si>
@@ -194,6 +194,22 @@
   </si>
   <si>
     <t>- ind_fond_fin_ult1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**numeric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 "ult_fec_cli_1t", "conyuemp"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">중요? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별, 나이, 유지개월수,  수입, segmentation, activity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -292,6 +308,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
@@ -569,280 +586,297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="23" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" ht="23" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" ht="23" x14ac:dyDescent="0.3">
+      <c r="B31" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C39" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
         <v>47</v>
       </c>
     </row>
